--- a/liensMagasinIT.xlsx
+++ b/liensMagasinIT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kiabi-my.sharepoint.com/personal/jeanbaptiste_marcant_kiabi_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01104957-0BBC-4C9E-A1FE-281682524831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35C6DEE-10F1-4713-96E8-B7AA2C542A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54495" yWindow="75" windowWidth="26010" windowHeight="20985" xr2:uid="{34A77E13-B420-41EB-B9DA-82CDD7252AF0}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="51840" windowHeight="21120" xr2:uid="{34A77E13-B420-41EB-B9DA-82CDD7252AF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="44">
   <si>
     <t>Magasin CL Kstore ClientIT</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Bureautique Magasin Xenapp</t>
+  </si>
+  <si>
+    <t>ignore</t>
   </si>
 </sst>
 </file>
@@ -573,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A50347-9CD5-49A3-96DF-D8E2F760DF59}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,7 +590,7 @@
     <col min="4" max="4" width="96.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -601,7 +604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -615,7 +618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -629,7 +632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -643,7 +646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -657,7 +660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -669,7 +672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -681,7 +684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -693,7 +696,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -705,7 +708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -717,7 +720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -727,9 +730,14 @@
       <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -739,9 +747,14 @@
       <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -755,7 +768,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -767,7 +780,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
@@ -777,7 +790,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -791,7 +804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -801,9 +814,14 @@
       <c r="C17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -817,7 +835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
@@ -829,7 +847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
@@ -841,7 +859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
@@ -853,7 +871,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>35</v>
       </c>
@@ -865,7 +883,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
@@ -877,7 +895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>35</v>
       </c>
@@ -887,9 +905,14 @@
       <c r="C24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
@@ -899,9 +922,14 @@
       <c r="C25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
@@ -911,9 +939,14 @@
       <c r="C26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
@@ -927,7 +960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>40</v>
       </c>
@@ -941,7 +974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>40</v>
       </c>
@@ -953,7 +986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
@@ -965,7 +998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
@@ -977,7 +1010,7 @@
       </c>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -1082,6 +1115,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4C4F98B02FC824FB53C274AE695B5C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="761aea7c456382ee32b330a56f094659">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1be0f04c-4a1a-4f6a-bd5e-343bdc9c8df5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25f0d61ea3d3f95a5c8906a45842e7c4" ns3:_="">
     <xsd:import namespace="1be0f04c-4a1a-4f6a-bd5e-343bdc9c8df5"/>
@@ -1213,15 +1255,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1231,6 +1264,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{185FB633-F3D0-44A4-9D45-0AC12B49FE61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A720789B-7017-483A-B6AB-AA068F969C91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1244,14 +1285,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{185FB633-F3D0-44A4-9D45-0AC12B49FE61}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/liensMagasinIT.xlsx
+++ b/liensMagasinIT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35C6DEE-10F1-4713-96E8-B7AA2C542A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59514B4-DF0E-422E-BBEA-66F3A50EF2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="51840" windowHeight="21120" xr2:uid="{34A77E13-B420-41EB-B9DA-82CDD7252AF0}"/>
+    <workbookView xWindow="28695" yWindow="75" windowWidth="26010" windowHeight="20985" xr2:uid="{34A77E13-B420-41EB-B9DA-82CDD7252AF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
   <si>
     <t>Magasin CL Kstore ClientIT</t>
   </si>
@@ -65,18 +65,9 @@
     <t>Bureautique Magasin Citrix</t>
   </si>
   <si>
-    <t>Liens Ressources Humaines :</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -Citrix-</t>
   </si>
   <si>
-    <t>K'IAM</t>
-  </si>
-  <si>
-    <t>https://iamuaprod.kiabi.fr/idmdash</t>
-  </si>
-  <si>
     <t>Magasin CLO ClientIT</t>
   </si>
   <si>
@@ -135,9 +126,6 @@
   </si>
   <si>
     <t>Applications Publiées - Excel - Powerpoint</t>
-  </si>
-  <si>
-    <t>Risorse Umane :</t>
   </si>
   <si>
     <t>Magasin LSA ClientIT</t>
@@ -229,7 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -239,6 +227,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -579,7 +570,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E12"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -633,48 +624,40 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
@@ -686,158 +669,150 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
@@ -849,43 +824,43 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
@@ -897,86 +872,78 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="3" t="s">
@@ -988,58 +955,58 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>2</v>
@@ -1050,7 +1017,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>4</v>
@@ -1064,31 +1031,23 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
@@ -1109,6 +1068,7 @@
     <hyperlink ref="D34" r:id="rId12" xr:uid="{892EC517-F906-475B-963B-2933DAC1E257}"/>
     <hyperlink ref="D35" r:id="rId13" xr:uid="{64ECCFF9-10ED-4474-A52F-1A174091F109}"/>
     <hyperlink ref="D36" r:id="rId14" xr:uid="{53B3E9D3-6B28-4AEB-8AEB-5B77EA6A74BA}"/>
+    <hyperlink ref="D5" r:id="rId15" location="/login" xr:uid="{5B9C433C-190B-4C5B-9140-C5D8F9886E36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1124,6 +1084,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1be0f04c-4a1a-4f6a-bd5e-343bdc9c8df5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4C4F98B02FC824FB53C274AE695B5C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="761aea7c456382ee32b330a56f094659">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1be0f04c-4a1a-4f6a-bd5e-343bdc9c8df5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25f0d61ea3d3f95a5c8906a45842e7c4" ns3:_="">
     <xsd:import namespace="1be0f04c-4a1a-4f6a-bd5e-343bdc9c8df5"/>
@@ -1255,14 +1223,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1be0f04c-4a1a-4f6a-bd5e-343bdc9c8df5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{185FB633-F3D0-44A4-9D45-0AC12B49FE61}">
   <ds:schemaRefs>
@@ -1272,6 +1232,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23AB5218-5EA7-42DF-8309-2F118F8F489A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1be0f04c-4a1a-4f6a-bd5e-343bdc9c8df5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A720789B-7017-483A-B6AB-AA068F969C91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1287,20 +1263,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23AB5218-5EA7-42DF-8309-2F118F8F489A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1be0f04c-4a1a-4f6a-bd5e-343bdc9c8df5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>